--- a/second-order/January1876.xlsx
+++ b/second-order/January1876.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8555" documentId="13_ncr:1_{FE416C0C-1538-4D04-8B99-BDE1D54B58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A82D0BC-7533-4BCD-9E67-D936650BF7BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF320F9-A9DA-8E4C-BCCA-C880E491E6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="11" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="12" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawes" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,9 @@
     <sheet name="St Aubin's, Jersey" sheetId="14" r:id="rId11"/>
     <sheet name="Markree Castle" sheetId="9" r:id="rId12"/>
     <sheet name="Birr Castle" sheetId="8" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId14"/>
-    <sheet name="Dartmoor" sheetId="7" r:id="rId15"/>
+    <sheet name="Dartmoor" sheetId="7" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="73">
   <si>
     <t>Barometer</t>
   </si>
@@ -266,9 +265,6 @@
     <t>Birr Castle</t>
   </si>
   <si>
-    <t>30.36430.568</t>
-  </si>
-  <si>
     <t>Dartmoor</t>
   </si>
 </sst>
@@ -279,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +582,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,12 +604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -929,59 +925,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1172,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1241,7 +1237,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1367,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1432,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +1497,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1566,7 +1562,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1696,7 +1692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1761,7 +1757,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +1822,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +1887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1956,7 +1952,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2082,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2147,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -2216,7 +2212,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
@@ -2411,7 +2407,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2476,7 +2472,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -2541,7 +2537,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -2606,7 +2602,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -2671,7 +2667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
@@ -2736,7 +2732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +2797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -2866,7 +2862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
@@ -2931,7 +2927,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +2992,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>19</v>
       </c>
@@ -3061,7 +3057,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -3139,49 +3135,49 @@
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3246,7 +3242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -3311,7 +3307,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -3376,7 +3372,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
@@ -3441,7 +3437,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
@@ -3571,7 +3567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -3701,7 +3697,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>60</v>
       </c>
@@ -3766,7 +3762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -3831,7 +3827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
@@ -3961,7 +3957,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>60</v>
       </c>
@@ -4091,7 +4087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
@@ -4156,7 +4152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
@@ -4221,7 +4217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>60</v>
       </c>
@@ -4286,7 +4282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>60</v>
       </c>
@@ -4351,7 +4347,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -4416,7 +4412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>60</v>
       </c>
@@ -4481,7 +4477,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
@@ -4546,7 +4542,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
@@ -4611,7 +4607,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -4676,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
@@ -4741,7 +4737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>60</v>
       </c>
@@ -4806,7 +4802,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>60</v>
       </c>
@@ -4871,7 +4867,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -4936,7 +4932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>60</v>
       </c>
@@ -5001,7 +4997,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>60</v>
       </c>
@@ -5066,7 +5062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>60</v>
       </c>
@@ -5131,7 +5127,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>60</v>
       </c>
@@ -5196,7 +5192,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>60</v>
       </c>
@@ -5261,7 +5257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -5337,49 +5333,49 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5444,7 +5440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>64</v>
       </c>
@@ -5509,7 +5505,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -5574,7 +5570,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
@@ -5639,7 +5635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -5704,7 +5700,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -5769,7 +5765,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>64</v>
       </c>
@@ -5834,7 +5830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
@@ -5899,7 +5895,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
@@ -6029,7 +6025,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
@@ -6094,7 +6090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>64</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -6224,7 +6220,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>64</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>64</v>
       </c>
@@ -6354,7 +6350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>64</v>
       </c>
@@ -6419,7 +6415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
@@ -6484,7 +6480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>64</v>
       </c>
@@ -6549,7 +6545,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>64</v>
       </c>
@@ -6614,7 +6610,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>64</v>
       </c>
@@ -6679,7 +6675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>64</v>
       </c>
@@ -6744,7 +6740,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
@@ -6809,7 +6805,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>64</v>
       </c>
@@ -6874,7 +6870,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -6939,7 +6935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -7004,7 +7000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>64</v>
       </c>
@@ -7069,7 +7065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>64</v>
       </c>
@@ -7134,7 +7130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
@@ -7199,7 +7195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>64</v>
       </c>
@@ -7264,7 +7260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>64</v>
       </c>
@@ -7329,7 +7325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>64</v>
       </c>
@@ -7394,7 +7390,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>64</v>
       </c>
@@ -7459,7 +7455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -7532,61 +7528,61 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7651,7 +7647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -7716,7 +7712,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -7781,7 +7777,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -7846,7 +7842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -7911,7 +7907,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>70</v>
       </c>
@@ -7976,7 +7972,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>70</v>
       </c>
@@ -8041,7 +8037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
@@ -8106,7 +8102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
@@ -8171,7 +8167,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -8236,7 +8232,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
@@ -8301,7 +8297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -8366,7 +8362,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
@@ -8431,7 +8427,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
@@ -8496,7 +8492,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>70</v>
       </c>
@@ -8561,7 +8557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
@@ -8626,7 +8622,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>70</v>
       </c>
@@ -8691,7 +8687,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
@@ -8756,7 +8752,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
@@ -8821,7 +8817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -8886,7 +8882,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>70</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>70</v>
       </c>
@@ -9016,7 +9012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>70</v>
       </c>
@@ -9081,7 +9077,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
@@ -9146,7 +9142,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>70</v>
       </c>
@@ -9211,7 +9207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
@@ -9276,7 +9272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
@@ -9341,7 +9337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>70</v>
       </c>
@@ -9406,7 +9402,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
@@ -9471,7 +9467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>70</v>
       </c>
@@ -9536,7 +9532,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>70</v>
       </c>
@@ -9601,7 +9597,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
@@ -9666,14 +9662,14 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="32">
         <v>30.14</v>
       </c>
       <c r="F35" s="18">
@@ -9740,61 +9736,61 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9859,7 +9855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
@@ -9924,7 +9920,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -9989,7 +9985,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>71</v>
       </c>
@@ -10054,7 +10050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
@@ -10184,7 +10180,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>71</v>
       </c>
@@ -10249,7 +10245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>71</v>
       </c>
@@ -10314,7 +10310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>71</v>
       </c>
@@ -10379,7 +10375,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>71</v>
       </c>
@@ -10444,7 +10440,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -10509,7 +10505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -10574,7 +10570,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>71</v>
       </c>
@@ -10590,8 +10586,8 @@
       <c r="E15" s="6">
         <v>30.207000000000001</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>72</v>
+      <c r="F15" s="8">
+        <v>30.364000000000001</v>
       </c>
       <c r="G15" s="7">
         <v>38.9</v>
@@ -10639,7 +10635,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>71</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -10769,7 +10765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>71</v>
       </c>
@@ -10899,7 +10895,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>71</v>
       </c>
@@ -10964,7 +10960,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>71</v>
       </c>
@@ -11029,7 +11025,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>71</v>
       </c>
@@ -11094,7 +11090,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
@@ -11159,7 +11155,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -11224,7 +11220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>71</v>
       </c>
@@ -11289,7 +11285,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>71</v>
       </c>
@@ -11354,7 +11350,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
@@ -11419,7 +11415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>71</v>
       </c>
@@ -11484,7 +11480,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -11614,7 +11610,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>71</v>
       </c>
@@ -11679,7 +11675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>71</v>
       </c>
@@ -11744,7 +11740,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>71</v>
       </c>
@@ -11809,7 +11805,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
@@ -11874,7 +11870,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -11944,77 +11940,65 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F41DE0-974F-4531-B473-12361D8B5E91}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43E2027-8566-4F24-BD57-2C2DEF03F051}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12079,9 +12063,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -12144,9 +12128,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -12209,9 +12193,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -12274,9 +12258,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -12339,9 +12323,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -12404,9 +12388,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -12469,9 +12453,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -12534,9 +12518,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -12599,9 +12583,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -12664,9 +12648,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -12729,9 +12713,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -12794,9 +12778,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -12859,9 +12843,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -12924,9 +12908,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -12989,9 +12973,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -13054,9 +13038,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -13119,9 +13103,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -13184,9 +13168,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -13249,9 +13233,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -13314,9 +13298,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -13379,9 +13363,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -13444,9 +13428,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -13509,9 +13493,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -13574,9 +13558,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -13639,9 +13623,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -13704,9 +13688,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -13769,9 +13753,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -13834,9 +13818,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -13899,9 +13883,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -13964,9 +13948,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="7">
         <v>1876</v>
@@ -14029,9 +14013,9 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="7">
         <v>1876</v>
@@ -14094,7 +14078,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -14170,59 +14154,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14287,7 +14271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -14352,7 +14336,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -14417,7 +14401,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -14482,7 +14466,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -14547,7 +14531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -14612,7 +14596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -14677,7 +14661,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -14742,7 +14726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -14807,7 +14791,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -14872,7 +14856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -14937,7 +14921,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -15002,7 +14986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
@@ -15067,7 +15051,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -15132,7 +15116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -15197,7 +15181,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -15262,7 +15246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -15327,7 +15311,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -15392,7 +15376,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -15457,7 +15441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -15522,7 +15506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -15587,7 +15571,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -15652,7 +15636,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>39</v>
       </c>
@@ -15717,7 +15701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -15782,7 +15766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
@@ -15847,7 +15831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
@@ -15912,7 +15896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
@@ -15977,7 +15961,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>39</v>
       </c>
@@ -16042,7 +16026,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
@@ -16107,7 +16091,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>39</v>
       </c>
@@ -16172,7 +16156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -16237,7 +16221,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>39</v>
       </c>
@@ -16302,7 +16286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -16378,59 +16362,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16495,7 +16479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>42</v>
       </c>
@@ -16560,7 +16544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -16625,7 +16609,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -16690,7 +16674,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -16755,7 +16739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -16820,7 +16804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -16885,7 +16869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -16950,7 +16934,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -17015,7 +16999,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -17080,7 +17064,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
@@ -17145,7 +17129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -17210,7 +17194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -17275,7 +17259,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -17340,7 +17324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -17405,7 +17389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -17470,7 +17454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -17535,7 +17519,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -17600,7 +17584,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -17665,7 +17649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -17730,7 +17714,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
@@ -17795,7 +17779,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -17860,7 +17844,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>42</v>
       </c>
@@ -17925,7 +17909,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
@@ -17990,7 +17974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
@@ -18055,7 +18039,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
@@ -18120,7 +18104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
@@ -18185,7 +18169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>42</v>
       </c>
@@ -18250,7 +18234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -18315,7 +18299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>42</v>
       </c>
@@ -18380,7 +18364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -18445,7 +18429,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>42</v>
       </c>
@@ -18510,7 +18494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -18586,59 +18570,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18703,7 +18687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -18768,7 +18752,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -18833,7 +18817,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -18898,7 +18882,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>45</v>
       </c>
@@ -18963,7 +18947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
@@ -19028,7 +19012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
@@ -19093,7 +19077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -19158,7 +19142,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -19223,7 +19207,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -19288,7 +19272,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
@@ -19353,7 +19337,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -19418,7 +19402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -19483,7 +19467,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -19548,7 +19532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -19613,7 +19597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -19678,7 +19662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>45</v>
       </c>
@@ -19743,7 +19727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -19808,7 +19792,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -19873,7 +19857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -19938,7 +19922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
@@ -20003,7 +19987,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -20068,7 +20052,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -20133,7 +20117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
@@ -20198,7 +20182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
@@ -20263,7 +20247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>45</v>
       </c>
@@ -20328,7 +20312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
@@ -20393,7 +20377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
@@ -20458,7 +20442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
@@ -20523,7 +20507,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -20588,7 +20572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
@@ -20653,7 +20637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>45</v>
       </c>
@@ -20718,7 +20702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -20791,53 +20775,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20902,7 +20886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
@@ -20967,7 +20951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -21032,7 +21016,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -21097,7 +21081,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>51</v>
       </c>
@@ -21162,7 +21146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -21227,7 +21211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
@@ -21292,7 +21276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -21357,7 +21341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
@@ -21422,7 +21406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -21487,7 +21471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -21552,7 +21536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
@@ -21617,7 +21601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
@@ -21682,7 +21666,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>51</v>
       </c>
@@ -21747,7 +21731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
@@ -21812,7 +21796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
@@ -21877,7 +21861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>51</v>
       </c>
@@ -21891,7 +21875,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6">
-        <v>320.54000000000002</v>
+        <v>30.54</v>
       </c>
       <c r="F19" s="8">
         <v>30.436</v>
@@ -21942,7 +21926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -22007,7 +21991,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -22072,7 +22056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
@@ -22137,7 +22121,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -22202,7 +22186,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -22267,7 +22251,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -22332,7 +22316,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -22397,7 +22381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
@@ -22462,7 +22446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -22527,7 +22511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
@@ -22592,7 +22576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
@@ -22657,7 +22641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>51</v>
       </c>
@@ -22722,7 +22706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>51</v>
       </c>
@@ -22787,7 +22771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -22852,7 +22836,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
@@ -22917,7 +22901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -22993,49 +22977,49 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23100,7 +23084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
@@ -23165,7 +23149,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
@@ -23230,7 +23214,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -23295,7 +23279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -23360,7 +23344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -23425,7 +23409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -23490,7 +23474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -23555,7 +23539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -23620,7 +23604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -23685,7 +23669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -23750,7 +23734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -23815,7 +23799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
@@ -23880,7 +23864,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -23945,7 +23929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
@@ -24010,7 +23994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -24075,7 +24059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -24140,7 +24124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
@@ -24205,7 +24189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
@@ -24270,7 +24254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -24335,7 +24319,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
@@ -24400,7 +24384,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -24465,7 +24449,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
@@ -24530,7 +24514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>53</v>
       </c>
@@ -24595,7 +24579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -24660,7 +24644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
@@ -24725,7 +24709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
@@ -24790,7 +24774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -24855,7 +24839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
@@ -24920,7 +24904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
@@ -24985,7 +24969,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -25050,7 +25034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
@@ -25115,7 +25099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -25189,60 +25173,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25307,7 +25291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
@@ -25372,7 +25356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
@@ -25437,7 +25421,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -25502,7 +25486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -25567,7 +25551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
@@ -25632,7 +25616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
@@ -25697,7 +25681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
@@ -25762,7 +25746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>54</v>
       </c>
@@ -25827,7 +25811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
@@ -25892,7 +25876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
@@ -25957,7 +25941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
@@ -26022,7 +26006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -26087,7 +26071,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
@@ -26152,7 +26136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -26217,7 +26201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
@@ -26282,7 +26266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>54</v>
       </c>
@@ -26347,7 +26331,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
@@ -26412,7 +26396,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>54</v>
       </c>
@@ -26477,7 +26461,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
@@ -26542,7 +26526,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
@@ -26607,7 +26591,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>54</v>
       </c>
@@ -26672,7 +26656,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -26737,7 +26721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
@@ -26802,7 +26786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -26867,7 +26851,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
@@ -26932,7 +26916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
@@ -26997,7 +26981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>54</v>
       </c>
@@ -27062,7 +27046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
@@ -27127,7 +27111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>54</v>
       </c>
@@ -27192,7 +27176,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>54</v>
       </c>
@@ -27257,7 +27241,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>54</v>
       </c>
@@ -27322,7 +27306,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -27397,60 +27381,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W33" sqref="W33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27515,7 +27499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
@@ -27580,7 +27564,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
@@ -27645,7 +27629,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
@@ -27710,7 +27694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -27775,7 +27759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -27840,7 +27824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
@@ -27905,7 +27889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
@@ -27970,7 +27954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
@@ -28035,7 +28019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -28100,7 +28084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -28165,7 +28149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
@@ -28230,7 +28214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>55</v>
       </c>
@@ -28295,7 +28279,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>55</v>
       </c>
@@ -28360,7 +28344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
@@ -28425,7 +28409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -28490,7 +28474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
@@ -28555,7 +28539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
@@ -28620,7 +28604,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
@@ -28685,7 +28669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -28750,7 +28734,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
@@ -28815,7 +28799,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
@@ -28880,7 +28864,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>55</v>
       </c>
@@ -28945,7 +28929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
@@ -29010,7 +28994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>55</v>
       </c>
@@ -29075,7 +29059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>55</v>
       </c>
@@ -29140,7 +29124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>55</v>
       </c>
@@ -29205,7 +29189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>55</v>
       </c>
@@ -29270,7 +29254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>55</v>
       </c>
@@ -29335,7 +29319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
@@ -29400,7 +29384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>55</v>
       </c>
@@ -29465,7 +29449,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
@@ -29530,7 +29514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -29607,49 +29591,49 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29714,7 +29698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
@@ -29779,7 +29763,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
@@ -29844,7 +29828,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
@@ -29909,7 +29893,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>59</v>
       </c>
@@ -29974,7 +29958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -30039,7 +30023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
@@ -30104,7 +30088,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
@@ -30169,7 +30153,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
@@ -30234,7 +30218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
@@ -30299,7 +30283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
@@ -30364,7 +30348,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -30429,7 +30413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -30494,7 +30478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
@@ -30559,7 +30543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>59</v>
       </c>
@@ -30624,7 +30608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>59</v>
       </c>
@@ -30689,7 +30673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -30754,7 +30738,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
@@ -30819,7 +30803,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -30884,7 +30868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
@@ -30949,7 +30933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -31014,7 +30998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
@@ -31079,7 +31063,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
@@ -31144,7 +31128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>59</v>
       </c>
@@ -31209,7 +31193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -31274,7 +31258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>59</v>
       </c>
@@ -31339,7 +31323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>59</v>
       </c>
@@ -31404,7 +31388,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
@@ -31469,7 +31453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
@@ -31534,7 +31518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>59</v>
       </c>
@@ -31599,7 +31583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>
@@ -31664,7 +31648,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
@@ -31729,17 +31713,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="32">
         <v>30.3</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="33">
         <v>30.3</v>
       </c>
       <c r="G35" s="16">
@@ -31798,65 +31782,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1349a795b26a8aa9b88fd8c3a4d895fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="339ab83a3842ae956d5f301ad7aff477" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -32128,7 +32053,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -32147,18 +32072,109 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55C6B96-C787-4D25-A874-F62637CEAEAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE337FE7-1FD6-4DA4-8726-B2B5174E4D0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55C6B96-C787-4D25-A874-F62637CEAEAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE337FE7-1FD6-4DA4-8726-B2B5174E4D0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>